--- a/biology/Botanique/Osmorhiza_claytonii/Osmorhiza_claytonii.xlsx
+++ b/biology/Botanique/Osmorhiza_claytonii/Osmorhiza_claytonii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Osmorhiza claytonii est espèce de plantes herbacées vivaces d'Amérique du Nord, présente au Canada et dans l'Est des États-Unis.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour la base de données The Plant List, ce taxon n'est pas valide et devrait être considéré comme une variété sous le nom Osmorhiza aristata var. aristata[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour la base de données The Plant List, ce taxon n'est pas valide et devrait être considéré comme une variété sous le nom Osmorhiza aristata var. aristata. 
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Osmorhiza claytonii est une plante herbacée pubescente vivace mesurant de 45 à 90 cm de hauteur. Ses feuilles, de couleur jaune verdâtre, sont grandes, composées, profondément divisées et dentelées. Ses fleurs sont petites (1,5 mm), blanches, groupées sur une ombelle à long pédoncule. Ses tiges, et dans une moindre mesure ses feuilles, présentent des poils blancs. Ses feuilles sont regroupées par trois sur ses branches. Lorsqu'elle est cassée cette plante dégage une odeur anisée. Ses graines ont des barbes qui peuvent s'accrocher aux vêtements, à la fourrure ou aux plumes.
 </t>
